--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
